--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value746.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value746.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>-1</v>
+        <v>0.841771125793457</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.287475824356079</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.00734108516232</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>0.6965110895137722</v>
+        <v>1.548931241035461</v>
       </c>
     </row>
   </sheetData>
